--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_732.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_732.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d252254-Reviews-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>138</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Super-8-By-Wyndham-Canoga-Park.h122873.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_732.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_732.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1227 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r569060551-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>252254</t>
+  </si>
+  <si>
+    <t>569060551</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>It a good value at all!!!!!</t>
+  </si>
+  <si>
+    <t>My bathroom was so dirty looking that I was awake all night wondering if my bedding was clean. I paid a good amount of money for this room which was old and dirty!  If theses prices are to be charged, some rooms need to be badly remodeled!!!  I will not stay here again nor recommend it to anyone I know!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r564309660-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564309660</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this location numerous times in 2016 but...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this location numerous times in 2016 but alot has changed there is now a $50 deposit which is an inconvenience if a customer really needs a room , if you are there visiting for work or business forget about staying here because you can only stay 7 days. The staff member was very very rude and at 10 a.m an hour before check out they were ringing my phone I can't say I would be returning to this site again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r563193927-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>563193927</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel In Canoga Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this location for Two weeks as my house was being remodeled.  The hotel staff were very kind and the housekeeping was very fast.  The rooms were remodeled and had a fridge.  Good WiFI too.  Bed was comfortable.   There were many smokers outside of the rooms though.  Mostly quiet.   Good Hotel </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r554241708-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554241708</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r552313084-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>552313084</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>I really enjoy this hotel the only disappointment  was that...</t>
+  </si>
+  <si>
+    <t>I really enjoy this hotel the only disappointment  was that I requested late check out and front desk did not grant me it. I have never had a problem in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t>Susie C, Manager at Super 8 by Wyndham Canoga Park, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>I really enjoy this hotel the only disappointment  was that I requested late check out and front desk did not grant me it. I have never had a problem in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r549343786-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549343786</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Don't expect to sleep past 0600!</t>
+  </si>
+  <si>
+    <t>I should have checked the location better PRIOR to booking.  It's in a busy industrial area and things start getting really noisy at about 0600 hours.  So don't plan on sleeping in.Another issue is hotel staff entering my room, with a DO NOT DISTURB sign on my door, while I was gone.  If I had wanted maid service, OR anyone in my room while I was gone, I would NOT have hung the DO NOT DISTURB sign on the door.  Perhaps the sign should have been in Chinese? Anywho, those MAJOR annoyances aside, the room was large and comfortable including the Queen size beds.  BUT, the interior and exterior really show their age and are in need a major remodel, including much BETTER soundproofing. Overall, I can't give any more than Two stars.  If staff could read simple ENGLISH signs like DO NOT DISTURB, I would have given Three stars.There are much BETTER Super 8 locations AND much better econo hotels in the area for a similar price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I should have checked the location better PRIOR to booking.  It's in a busy industrial area and things start getting really noisy at about 0600 hours.  So don't plan on sleeping in.Another issue is hotel staff entering my room, with a DO NOT DISTURB sign on my door, while I was gone.  If I had wanted maid service, OR anyone in my room while I was gone, I would NOT have hung the DO NOT DISTURB sign on the door.  Perhaps the sign should have been in Chinese? Anywho, those MAJOR annoyances aside, the room was large and comfortable including the Queen size beds.  BUT, the interior and exterior really show their age and are in need a major remodel, including much BETTER soundproofing. Overall, I can't give any more than Two stars.  If staff could read simple ENGLISH signs like DO NOT DISTURB, I would have given Three stars.There are much BETTER Super 8 locations AND much better econo hotels in the area for a similar price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r532097452-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532097452</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swift check-in and the room was nicer than expected. Large, clean, quiet. Mini-fridge a nice touch. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r530044354-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>530044354</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>close, convienient, good value</t>
+  </si>
+  <si>
+    <t>Motel was clean, close to downtown, restaurants, shopping, etc.  Pool was heated.  Room was huge, comfortable bed.  Good value for the money.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r529748668-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>529748668</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>We stayed on the upper floor and found there was noise from adjacent rooms and also from the doors closing to the rooms. Parking is very tight and limited. Went down for breakfast (which is in the front lobby) when I thought that I had a few minutes to grab something but it was already cleaned up. Make sure your room clock is set the same as the office. Room was clean though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r526195632-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>526195632</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>I had a great experience at the hotel he people were very...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had a great experience at the hotel he people were very nice and helpful not one thing to complain about that for sure I would definitely recommend this hotel to everyone I know </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r523910970-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523910970</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r521132129-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521132129</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r518511121-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>518511121</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Last minute reservation and accomidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had my house fumigated and we had to vacate the property for two days. I booked a room with two queen sized bed and they were comfortable and everything was clean and accommodating. Only down side was a couple stayin in a room a couple doors down came out and started a scream fest and argument in their room that spilled over into the parking lot and then their expedition SUV, Within 15 minutes the manager showed up to tell them to leave. Other than that it was a comfortable stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r511009595-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>511009595</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while traveling through town. The positive: Room was clean and spacious. Beds were comfortable. Had ceramic simulated wood flooring throughout. Walking distance to Starbucks, KFC, Taco Bell and other places. Nice size fridge.  Good wifi. The negative: Continental style breakfast was lame. Bathroom was outdated, TV was small.  I would stay here again if necessary.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r503874687-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>503874687</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r497876141-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>497876141</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r494893667-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>494893667</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for price</t>
+  </si>
+  <si>
+    <t>This hotel is clean, well maintained and inexpensive. Nothing fancy but had everything we needed and very nice for the price. Love the faux wood flooring, much nicer than carpet, beautiful tile on the walkway. Bathroom is old style but perfectly acceptable. Nice size fridge in the room, desk, and cute little table for 2. Would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r491328025-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>491328025</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We planned a trip to sixflags and this was the cheapest room we could find for our 4 day weekend. I was impressed on how clean everything was. Check in was easy and fast. The only thing I could say I didn't like was t he old fashion bathrooms. The rooms were very nice and modern and the bathroom was not. Also love how close food places were. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r484230020-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>484230020</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Average motel, clean and spacious room</t>
+  </si>
+  <si>
+    <t>Nice, clean and spacious room. Has fridge but not microwave (you can use one at the breakfast area).Pool is not heated, so was cold during the first week of May.Breakfast is basic but good: coffee, tea, milk, cereal, bread and pancakes to heat in the microwave.Free parking, TV with cable, WiFi also included in the price.Checked in fast, even when was a little earlier from the suggested time.The place is northern LA, 30-40 minutes from Malibu/Santa Monica Pier. I felt safe in the area. Near Warner Center and Westfield Topanga Mall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r483301485-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>483301485</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Pros: Convenient and nice location. Shopping and restaurants are close. Laminate flooring, so no carpet stains. Fridge in room. Staff is helpful, but hard to get a smile out of them. Best of all, great value! It is hard to get a hotel of this quality in the area for this price. Breakfast consisted of eggo waffles, pre-packaged cinnamon rolls, hot and cold cereal, toast and yogart, juices and coffee.Cons: It was warm enough to swim on our first day. Unfortunately, the pool was dirty and had leaves lying on the bottom. The leaves were later removed, but the dirt remained as can be seen in the photograph. The laminate floors appeared somewhat clean. My wife spent one morning walking around the room in socks, by noon, the bottom of her socks were blackened. We noticed housekeeping used a broom wrapped in a towel to wipe the floors. The lobby is small. It has two high top tables pushed together. You can eat breakfast standing up or take it to your room.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Pros: Convenient and nice location. Shopping and restaurants are close. Laminate flooring, so no carpet stains. Fridge in room. Staff is helpful, but hard to get a smile out of them. Best of all, great value! It is hard to get a hotel of this quality in the area for this price. Breakfast consisted of eggo waffles, pre-packaged cinnamon rolls, hot and cold cereal, toast and yogart, juices and coffee.Cons: It was warm enough to swim on our first day. Unfortunately, the pool was dirty and had leaves lying on the bottom. The leaves were later removed, but the dirt remained as can be seen in the photograph. The laminate floors appeared somewhat clean. My wife spent one morning walking around the room in socks, by noon, the bottom of her socks were blackened. We noticed housekeeping used a broom wrapped in a towel to wipe the floors. The lobby is small. It has two high top tables pushed together. You can eat breakfast standing up or take it to your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r465853910-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>465853910</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r460250529-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>460250529</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel with nice upgrades!!! A+++</t>
+  </si>
+  <si>
+    <t>Very nice updated room! It was spacious and clean and no complaints. The bed was super comfy and the staff was great. 
+Dee at the front desk was super helpful in helping me book an Uber and overall a friendly face to check out with! 
+The continental breakfast was open from 7-10am and I thought it was awesome! Much better than the continental breakfast in most of the hotels I've ever stayed at. The only bad thing is if you have to catch an early flight you may not be able to grab breakfast but they had "grab bags" at the counter that were free. It was filled with fruit, a breakfast bar and a water. Oh and they always have coffee and tea at the front desk so I was at least able to grab a bag and coffee for my breakfast on the morning I had to leave.
+They have a lovely outdoor pool and hot tub and a lot of fun things for the kids to do. There is an attached bowling alley, diner and bar. All super nice to have all right there. The bar area (Where you could also order food at until 10 pm) has occasional local bands that come and play! Having all these amenities and perks attached right to the hotel was nice since we did not have a rental car.  We also had coupons in our room when we arrived for...Very nice updated room! It was spacious and clean and no complaints. The bed was super comfy and the staff was great. Dee at the front desk was super helpful in helping me book an Uber and overall a friendly face to check out with! The continental breakfast was open from 7-10am and I thought it was awesome! Much better than the continental breakfast in most of the hotels I've ever stayed at. The only bad thing is if you have to catch an early flight you may not be able to grab breakfast but they had "grab bags" at the counter that were free. It was filled with fruit, a breakfast bar and a water. Oh and they always have coffee and tea at the front desk so I was at least able to grab a bag and coffee for my breakfast on the morning I had to leave.They have a lovely outdoor pool and hot tub and a lot of fun things for the kids to do. There is an attached bowling alley, diner and bar. All super nice to have all right there. The bar area (Where you could also order food at until 10 pm) has occasional local bands that come and play! Having all these amenities and perks attached right to the hotel was nice since we did not have a rental car.  We also had coupons in our room when we arrived for free bowling! Awesome! When I come back to the area I'm definitely staying here! It was quiet even though the bowling alley, bar and dinner always seemed to be busy! I highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice updated room! It was spacious and clean and no complaints. The bed was super comfy and the staff was great. 
+Dee at the front desk was super helpful in helping me book an Uber and overall a friendly face to check out with! 
+The continental breakfast was open from 7-10am and I thought it was awesome! Much better than the continental breakfast in most of the hotels I've ever stayed at. The only bad thing is if you have to catch an early flight you may not be able to grab breakfast but they had "grab bags" at the counter that were free. It was filled with fruit, a breakfast bar and a water. Oh and they always have coffee and tea at the front desk so I was at least able to grab a bag and coffee for my breakfast on the morning I had to leave.
+They have a lovely outdoor pool and hot tub and a lot of fun things for the kids to do. There is an attached bowling alley, diner and bar. All super nice to have all right there. The bar area (Where you could also order food at until 10 pm) has occasional local bands that come and play! Having all these amenities and perks attached right to the hotel was nice since we did not have a rental car.  We also had coupons in our room when we arrived for...Very nice updated room! It was spacious and clean and no complaints. The bed was super comfy and the staff was great. Dee at the front desk was super helpful in helping me book an Uber and overall a friendly face to check out with! The continental breakfast was open from 7-10am and I thought it was awesome! Much better than the continental breakfast in most of the hotels I've ever stayed at. The only bad thing is if you have to catch an early flight you may not be able to grab breakfast but they had "grab bags" at the counter that were free. It was filled with fruit, a breakfast bar and a water. Oh and they always have coffee and tea at the front desk so I was at least able to grab a bag and coffee for my breakfast on the morning I had to leave.They have a lovely outdoor pool and hot tub and a lot of fun things for the kids to do. There is an attached bowling alley, diner and bar. All super nice to have all right there. The bar area (Where you could also order food at until 10 pm) has occasional local bands that come and play! Having all these amenities and perks attached right to the hotel was nice since we did not have a rental car.  We also had coupons in our room when we arrived for free bowling! Awesome! When I come back to the area I'm definitely staying here! It was quiet even though the bowling alley, bar and dinner always seemed to be busy! I highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r459936925-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>459936925</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel isn't fancy. If that's what you're after, that's not what you're going to get. The area is loud as well. It's the valley. However, it's super clean, and the front desk staff is amazing! I booked with reward points and have been talked down to, my rooms given away, refused service and asked to leave early so kindness at the front desk from any hotel in California is worth a repeat visit. Love the place and will be back! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r456824898-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456824898</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Business Trip Mission Hills CA</t>
+  </si>
+  <si>
+    <t>I stay at Super 8 Motels frequently as a Medical Device Technician all over the country, but this particular location truly leaves a lot to be desired (it sucked)...This was my second visit in six weeks, the first room was adequate, the second room I had was a non smoking room that had a strong aroma of smoke, and numerous burn holes on the bed spread, this after signing a waver that I would not smoke in the room myself or get a penalty.  The lamps had been broken, and even for a super 8, the property is runned down.  I would not advise this property, I called Wyndam/Super 8 Corporate, they credited me some points, but even when I am working in the area, I will not stay here again, unfortunate, as the location worked well for meMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I stay at Super 8 Motels frequently as a Medical Device Technician all over the country, but this particular location truly leaves a lot to be desired (it sucked)...This was my second visit in six weeks, the first room was adequate, the second room I had was a non smoking room that had a strong aroma of smoke, and numerous burn holes on the bed spread, this after signing a waver that I would not smoke in the room myself or get a penalty.  The lamps had been broken, and even for a super 8, the property is runned down.  I would not advise this property, I called Wyndam/Super 8 Corporate, they credited me some points, but even when I am working in the area, I will not stay here again, unfortunate, as the location worked well for meMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r451844329-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>451844329</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>The room, while neat, did not feel clean with its yucky...</t>
+  </si>
+  <si>
+    <t>The room, while neat, did not feel clean with its yucky, old green carpet. It had ripples in it like its time was done and needed to be replaced. The bathroom had a tub mat that was gray from being used, clearly needed a new one or at the very least, some bleach.  The second night while laying on the bed watching tv I was greeted by a spider that came racing over the side of the bed at me. When I looked over the side where it came from I could see there was about a foot of baseboard missing and the carpet was coming away from the wall so there was a nice opening for other "visitors" to come through. Also, there was this pounding noise that sounded like someone kept going around emptying the large trash bins outside the whole time. Between that, the spider and the 20mph winds that kept my door fluttering, it was really hard to get any sleep. I checked out a day early. I say they resolved my problem only because they refunded the night I didn't stay, otherwise, I have no way of knowing if they addressed the issues in that room. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The room, while neat, did not feel clean with its yucky, old green carpet. It had ripples in it like its time was done and needed to be replaced. The bathroom had a tub mat that was gray from being used, clearly needed a new one or at the very least, some bleach.  The second night while laying on the bed watching tv I was greeted by a spider that came racing over the side of the bed at me. When I looked over the side where it came from I could see there was about a foot of baseboard missing and the carpet was coming away from the wall so there was a nice opening for other "visitors" to come through. Also, there was this pounding noise that sounded like someone kept going around emptying the large trash bins outside the whole time. Between that, the spider and the 20mph winds that kept my door fluttering, it was really hard to get any sleep. I checked out a day early. I say they resolved my problem only because they refunded the night I didn't stay, otherwise, I have no way of knowing if they addressed the issues in that room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r436610323-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>436610323</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r435811215-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>435811215</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast stay ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's great for a nights sleep &amp; price was ok  . Staff was Ok . Their is construction going on though very loud .. room was small but worked .bed was comfortable but pillow's could use some Help . More lighting in room as well would be helpful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r430297762-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>430297762</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Too much noise</t>
+  </si>
+  <si>
+    <t>Between the pool, the guests up stairs. The construction that was going on. We asked for a nice quiet room with good internet. Good internet is what we got, the front desk did nothing about the noise. I've stayed there before and I will stay there again</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r428042922-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428042922</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Good for Overnight/Very Short Visit Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious room, great wifi connection...and it's free, archaic furniture and refrigerator, no microwave, no iron and ironing board, very limited parking, good customer service, breakfast pickings are slim. The hotel itself could use a major upgrade. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r414025480-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>414025480</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>great accomodations</t>
+  </si>
+  <si>
+    <t>Older motel, but everything worked and they had a nice pool.  The desk clerk was friendly, the beds were comfy, the water was hot, the fridge was cold.  It was clean and convenient to gas, food, Universal Studios and Hollywood Blvd.  The neighborhood was quiet.  Couldn't have asked for more for the price!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r406286657-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>406286657</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r406184778-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>406184778</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i go hear with my husband to escape the kids sometimes it is nice never had a problem here staff very nice </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r402449684-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>402449684</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>In transition</t>
+  </si>
+  <si>
+    <t>I had a very nice stay here the manager was consideret and helped me in the situation I was in .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r389464968-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>389464968</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r388736295-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388736295</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Quite good, better than most</t>
+  </si>
+  <si>
+    <t>The 2-queen room was nicer than most overnight chains.  There was a sink in the bathroom and one outside.  That is very convenient!Breakfast has a good selection of items, but not much choice of each.  2 cereals, 1 pastry, coffee, apples, 2 types of yogurt.  Also, toaster waffles, toast, etc.  There are 2 stand-up tables to eat at.  2-1/2 miles off the freeway.  A good stopping place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r388402019-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388402019</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Clean, very friendly staff.big rooms</t>
+  </si>
+  <si>
+    <t>Great staff. super clean room great location close to everything and just a nice ride down to the beach. Nothing too fancy but if you want fancy you will pay for it. This is a great budget friendly place.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r382498129-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>382498129</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Best 2 Star you will find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all 2 stars were this good, there would be no need for more stars. Super clean, great service. Excellent location. Thank you!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r379095746-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>379095746</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r361526686-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>361526686</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>weekend trip!</t>
+  </si>
+  <si>
+    <t>Nice central location between beach and amusement parks, our room smelt like pot two out of our three nights but I think it was because of our neighbors. Otherwise super nice stay.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r357681541-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>357681541</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Parking was an issue!</t>
+  </si>
+  <si>
+    <t>The room was clean, updated, and worth every penny. However, I was very upset with the weekend parking situation. Apparently the hotel shares its parking lot with the adjacent restaurant, and when I returned to the hotel later in the evening there were NO spaces available. More frustrating was the young kid, who was running the office, and his dismissive attitude about the situation. Overall, though, it was a nice property, just don't leave once you get there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r351337643-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>351337643</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r348542033-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>348542033</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r331293781-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>331293781</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>I love this place as it is near the mall,Indian restaurants,and Follow Your Heart.They have smoking rooms which is the main reason I stay there.I have a good walking route outside and a lot of parking.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r324518046-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>324518046</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r318167544-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>318167544</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Another satisfied guest!</t>
+  </si>
+  <si>
+    <t>Im honestly satisified with my recent stay! Parkings a bit tight but the staff to the room and rates will make me a repeat customer. Thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r293888374-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>293888374</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r290569069-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>290569069</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r288110661-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>288110661</t>
+  </si>
+  <si>
+    <t>July 12, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r269852628-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>269852628</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>I'm a Hilton Diamond Member and but this was cute and posh. Loved my stay!</t>
+  </si>
+  <si>
+    <t>I was just in for a day 5/4/2015 for a meeting and got there. Staff was nice. Place is nice. Room was nice. cute bed sheets. I liked it. Will stay again. Never heard of Canago park but it was a nice area. safe area. nothing bad to write about. I was a happy camper!danielkeeling0@yahooo.com</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r265645491-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>265645491</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r264787610-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>264787610</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Stayed One Night</t>
+  </si>
+  <si>
+    <t>We had a very comfortable room with a King Size bed a couple doors away from the Office. This property is located in rough part of Canaga Park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r261559497-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>261559497</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r247270757-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>247270757</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Super 8 stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at two Super 8 hotels in the last week.  One in Bloomington, MN and the other in Canoga Park, CA.  We had excellent service at both locations and the cost of our rooms was reasonable. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r242967820-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>242967820</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r235702432-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>235702432</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r230603512-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>230603512</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r227802035-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>227802035</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r210605334-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>210605334</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good choice for us looking for reasonable rate while forced to evacuate our home quickly in emergency situation. Clean rooms, helpful staff, management available.  </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r209476602-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>209476602</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r207567466-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>207567466</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>The 1 Star I gave was only  because I received a full refund</t>
+  </si>
+  <si>
+    <t>So I had a job in town that was expected to last a couple days.  I thought it would make sense to get a cheap room for the night to save gas and hopefully have more time to rest. Unfortunately, the room I had towards the back of the property had what I believe to be fleas or bed bugs and we had some less than desirable guests right next door. To be more exact, 4 PROSTITUTES WERE SHARING THE ROOM NEXT DOOR.  They had men lined up outside both of our rooms and were taking names. It was VERY obvious.  I called the manager and told him what was happening and I simply got a refund and apology right before they called the police to deal with it. IMO, I should have been offered a complimentary night or two at another one of the hotels in their network but, once again I am not impressed by the customer service of a hospitality provider.  Le Sigh....and yes, it was a rough day at work following all of this.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>So I had a job in town that was expected to last a couple days.  I thought it would make sense to get a cheap room for the night to save gas and hopefully have more time to rest. Unfortunately, the room I had towards the back of the property had what I believe to be fleas or bed bugs and we had some less than desirable guests right next door. To be more exact, 4 PROSTITUTES WERE SHARING THE ROOM NEXT DOOR.  They had men lined up outside both of our rooms and were taking names. It was VERY obvious.  I called the manager and told him what was happening and I simply got a refund and apology right before they called the police to deal with it. IMO, I should have been offered a complimentary night or two at another one of the hotels in their network but, once again I am not impressed by the customer service of a hospitality provider.  Le Sigh....and yes, it was a rough day at work following all of this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r202151240-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202151240</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r198591595-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198591595</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r198585516-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198585516</t>
+  </si>
+  <si>
+    <t>Decent hotel, AWFUL internet connection</t>
+  </si>
+  <si>
+    <t>I've been here several times and am reminded, each time I come, that the internet connection is AWFUL...they have at least 4 access points/routers, none of which never have internet access. I've been here 2.5 hours and have been on for a total of 5 minutes. If you are dependent upon internet for work, this is NOT the hotel. It's a decent hotel and reasonably priced, but forget having an internet connection! frustrating to say the least. I'm considering switching hotels, as I have a 2-night stay scheduled and need my internet!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r191710587-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>191710587</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r189949930-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>189949930</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r189146819-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>189146819</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r185405260-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185405260</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>After having read reviews about this hotel, i was very concerned staying there in terms of safety and the condition of the rooms. However, i was very very impressed with 99% of my stay. Check in was very easy, the front desk clerk was very kind and checked in in very quickly. The area seemed quiet and it was all night. The room was just perfect, the furniture, bed, bedding, T.V, sink, bathroom area no complaints at all. The WiFi was great. This was more than i had expected.However, i was a little dissapointed in the morning i had went to the lobby at 6.06am and the doors were closed for breakfast even though they said and had written that breakfast started at 6am. However, after a couple of minutes more i went inside the lobby and found that there was Juice, Milk, one type of cereal, coffee, yogurt, only apples, small waffles, bread and Danishes but no where to sit and eat. When asked you dont have a sitting area instead of the front desk clerk replying something like "Unfortunatly not", he replied there is 2 chairs over there, how was i suppose to eat with no table? He said its a get and go breakfast. Check out was very easy. I will definatly stay at this hotel againMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>After having read reviews about this hotel, i was very concerned staying there in terms of safety and the condition of the rooms. However, i was very very impressed with 99% of my stay. Check in was very easy, the front desk clerk was very kind and checked in in very quickly. The area seemed quiet and it was all night. The room was just perfect, the furniture, bed, bedding, T.V, sink, bathroom area no complaints at all. The WiFi was great. This was more than i had expected.However, i was a little dissapointed in the morning i had went to the lobby at 6.06am and the doors were closed for breakfast even though they said and had written that breakfast started at 6am. However, after a couple of minutes more i went inside the lobby and found that there was Juice, Milk, one type of cereal, coffee, yogurt, only apples, small waffles, bread and Danishes but no where to sit and eat. When asked you dont have a sitting area instead of the front desk clerk replying something like "Unfortunatly not", he replied there is 2 chairs over there, how was i suppose to eat with no table? He said its a get and go breakfast. Check out was very easy. I will definatly stay at this hotel againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r176696589-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>176696589</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r174610387-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174610387</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r169532851-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169532851</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>What's so Super?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After dealing with the rude guy at the front desk, we checked in to a room that smelled like pot smoke. The shower actually worked which was surprising. The pool closed early in the evening, which made no sense. Outside, some drunk lady was loitering around the parking lot. Definately not a suitable motel or family friendly.  Super 8 is usually a step up in quality from Motel 6, but not in this case. There was nothing Super about this dumpy little motel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r168732294-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>168732294</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Hookers and police activity</t>
+  </si>
+  <si>
+    <t>The room was clean. Ray was the only pleasant employee. Everyone else downright rude. Our first night we were greeted by undercover police busting the prostitutes using the spare rooms to turn tricks. Maids make extra income unlocking vacant rooms. I would not recommend this place for children.Or anyone for that fact.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r167581204-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167581204</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>While visiting family in Topanga, my brothers and I resided here for six days and found everything to be satisfactory.  Raymond was very helpful and Steve and Sam always had the breakfast ready and were very polite.  We were very satisfied with our rooms and found the location to be vey convenient for our purposes.  Planning to stay here again.Doris G.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r163495636-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>163495636</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r162987481-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162987481</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>My husband and I stayed on may 30 at your hotel. Next day as we left, he forgot his checkbook on the desk with a hundred dollar bill in side. We called as soon as he knew he had forgotten it. He was told that they had found the checkbook but know money. If  you can`t  trust the people that are working for you  then I guess this is not a hotel I or my friends want to stay at. I know the money was in his checkbook, so please tell me where it went from the time we left and the time we called? I believe you should look into it or it will happen again and will be more then us not pressing charges.   The young lady that checked us in was very nice, are room was clean and comfortable, so if you have answers for us please be in touch. Millie SerranoMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed on may 30 at your hotel. Next day as we left, he forgot his checkbook on the desk with a hundred dollar bill in side. We called as soon as he knew he had forgotten it. He was told that they had found the checkbook but know money. If  you can`t  trust the people that are working for you  then I guess this is not a hotel I or my friends want to stay at. I know the money was in his checkbook, so please tell me where it went from the time we left and the time we called? I believe you should look into it or it will happen again and will be more then us not pressing charges.   The young lady that checked us in was very nice, are room was clean and comfortable, so if you have answers for us please be in touch. Millie SerranoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r162578541-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162578541</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Homeless, drunks, and prostitutes</t>
+  </si>
+  <si>
+    <t>This hotel seems to be crawling with homeless, drunks, and prostitutes.  I had to deal with beggars outside the rooms, a prostitute who tried to lure me to her room, and a few drunks stumbling in the lot.  It was the middle of the day.  Not a good place for a family.  I was also overcharged by the hotel clerk and called him on it.  He returned the $10 overcharge but kept the cash and didn't give me a receipt.  Very bad hotel unless you want to get laid!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r142442475-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142442475</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>We had a later than normal check in with no complications. The night desk was friendly and offered information on alternate transportation options as we were in town to party locally. Quiet room and location. Excellent parking as well.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r132133931-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132133931</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Great Room, Nice People, Sucky Wireless</t>
+  </si>
+  <si>
+    <t>We stayed here Friday, June 15, 2012, Room 119.  Compared to the experience we had at the BW Cypress on Katella, we were apprehensive as we drove in, kind of run-down looking on Topanga Blvd.  However, the gentleman who checked us in was great.  We arrived at the room and opened the door and WOW, clean, bright white sheets, bright white towels, great beds!  We did have an issue with the wireless internet.  We had three computers and only one would connect and that was only at dial up speed. The grounds are nicely landscaped and the pool was clean though we did not use it.There is a Sushi place immediately next door and actually shares the same parking lot.  I have to say we were up till after nine and people were lined up out the door waiting to get in.  AND, they took some of the hotel parking so it was tuff finding a place when we came back from our outback experience.All in all, we would stay here again because the value is there, we just did not like we could not get internet as we depend on it when we travel.We did not take breakfast however I will tell you it is two cereals, plain corn flakes and frosted, plain little bagels with cream cheese, some pastery and two juices.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We stayed here Friday, June 15, 2012, Room 119.  Compared to the experience we had at the BW Cypress on Katella, we were apprehensive as we drove in, kind of run-down looking on Topanga Blvd.  However, the gentleman who checked us in was great.  We arrived at the room and opened the door and WOW, clean, bright white sheets, bright white towels, great beds!  We did have an issue with the wireless internet.  We had three computers and only one would connect and that was only at dial up speed. The grounds are nicely landscaped and the pool was clean though we did not use it.There is a Sushi place immediately next door and actually shares the same parking lot.  I have to say we were up till after nine and people were lined up out the door waiting to get in.  AND, they took some of the hotel parking so it was tuff finding a place when we came back from our outback experience.All in all, we would stay here again because the value is there, we just did not like we could not get internet as we depend on it when we travel.We did not take breakfast however I will tell you it is two cereals, plain corn flakes and frosted, plain little bagels with cream cheese, some pastery and two juices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r120094368-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120094368</t>
+  </si>
+  <si>
+    <t>11/02/2011</t>
+  </si>
+  <si>
+    <t>Nice place with free amenities at a great price</t>
+  </si>
+  <si>
+    <t>This was a very nice place to stay and an exceptional value. For the rate, don't expect perfection. I chose this location as I wanted something with a free continental breakfast, wi-fi, free parking without paying a lot. It was also conveniently within walking distance to a variety of stores. The area and the motel premises were both safe and quiet. The pool was nice. Although I wish the continental breakfast had served some type of fresh fruit, the price/value of the motel was so good, I can't really complain. This was my first time to a Super 8 motel. It was absolutely a very pleasant surprise.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r115932480-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115932480</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Nice Condition, middle of the road Super 8</t>
+  </si>
+  <si>
+    <t>Super 8 properties can be quite variable. This was one of their better efforts. It was clean and comfortable and the noise level was acceptable. It has two floors and I stayed on the top floor. There was no appreciable noise from any adjoining room.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r96785264-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>96785264</t>
+  </si>
+  <si>
+    <t>02/15/2011</t>
+  </si>
+  <si>
+    <t>Non-smoking is non-smoking, thank goodness, wireless works fine.</t>
+  </si>
+  <si>
+    <t>I have another review on here from this same trip, spent my first night at a place that wasn't strict about smoking, and that had wireless that a Mac couldn't access.This place was fine on both counts.  No frills, room a little too perfumey, but right for the price.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1869,5068 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" t="s">
+        <v>202</v>
+      </c>
+      <c r="L30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>198</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" t="s">
+        <v>216</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>209</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>225</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>225</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K38" t="s">
+        <v>240</v>
+      </c>
+      <c r="L38" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>236</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>251</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>260</v>
+      </c>
+      <c r="O42" t="s">
+        <v>154</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>262</v>
+      </c>
+      <c r="J43" t="s">
+        <v>263</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" t="s">
+        <v>267</v>
+      </c>
+      <c r="L44" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>269</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>273</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" t="s">
+        <v>277</v>
+      </c>
+      <c r="L46" t="s">
+        <v>278</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>280</v>
+      </c>
+      <c r="J47" t="s">
+        <v>281</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>282</v>
+      </c>
+      <c r="O47" t="s">
+        <v>154</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J48" t="s">
+        <v>285</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>282</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>290</v>
+      </c>
+      <c r="J50" t="s">
+        <v>291</v>
+      </c>
+      <c r="K50" t="s">
+        <v>292</v>
+      </c>
+      <c r="L50" t="s">
+        <v>293</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>294</v>
+      </c>
+      <c r="O50" t="s">
+        <v>154</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>298</v>
+      </c>
+      <c r="O51" t="s">
+        <v>154</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" t="s">
+        <v>301</v>
+      </c>
+      <c r="K52" t="s">
+        <v>302</v>
+      </c>
+      <c r="L52" t="s">
+        <v>303</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>298</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" t="s">
+        <v>306</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>307</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>310</v>
+      </c>
+      <c r="K54" t="s">
+        <v>311</v>
+      </c>
+      <c r="L54" t="s">
+        <v>312</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>313</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>315</v>
+      </c>
+      <c r="J55" t="s">
+        <v>316</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>317</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>319</v>
+      </c>
+      <c r="J56" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>321</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>323</v>
+      </c>
+      <c r="J57" t="s">
+        <v>324</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>325</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>327</v>
+      </c>
+      <c r="J58" t="s">
+        <v>328</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>329</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59" t="s">
+        <v>332</v>
+      </c>
+      <c r="K59" t="s">
+        <v>333</v>
+      </c>
+      <c r="L59" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>335</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>337</v>
+      </c>
+      <c r="J60" t="s">
+        <v>338</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>335</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>339</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" t="s">
+        <v>342</v>
+      </c>
+      <c r="L61" t="s">
+        <v>343</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>344</v>
+      </c>
+      <c r="O61" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" t="s">
+        <v>348</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>349</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>350</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>351</v>
+      </c>
+      <c r="J63" t="s">
+        <v>352</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>353</v>
+      </c>
+      <c r="O63" t="s">
+        <v>115</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>354</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>355</v>
+      </c>
+      <c r="J64" t="s">
+        <v>352</v>
+      </c>
+      <c r="K64" t="s">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s">
+        <v>357</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>353</v>
+      </c>
+      <c r="O64" t="s">
+        <v>154</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>358</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>359</v>
+      </c>
+      <c r="J65" t="s">
+        <v>360</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>361</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>362</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>363</v>
+      </c>
+      <c r="J66" t="s">
+        <v>364</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>361</v>
+      </c>
+      <c r="O66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>365</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>366</v>
+      </c>
+      <c r="J67" t="s">
+        <v>367</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>368</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>371</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>372</v>
+      </c>
+      <c r="J68" t="s">
+        <v>373</v>
+      </c>
+      <c r="K68" t="s">
+        <v>374</v>
+      </c>
+      <c r="L68" t="s">
+        <v>375</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>376</v>
+      </c>
+      <c r="O68" t="s">
+        <v>154</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>379</v>
+      </c>
+      <c r="J69" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>381</v>
+      </c>
+      <c r="O69" t="s">
+        <v>154</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>382</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>383</v>
+      </c>
+      <c r="J70" t="s">
+        <v>384</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>385</v>
+      </c>
+      <c r="O70" t="s">
+        <v>107</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>386</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>387</v>
+      </c>
+      <c r="J71" t="s">
+        <v>388</v>
+      </c>
+      <c r="K71" t="s">
+        <v>389</v>
+      </c>
+      <c r="L71" t="s">
+        <v>390</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>391</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>392</v>
+      </c>
+      <c r="J72" t="s">
+        <v>393</v>
+      </c>
+      <c r="K72" t="s">
+        <v>394</v>
+      </c>
+      <c r="L72" t="s">
+        <v>395</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>396</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>397</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>398</v>
+      </c>
+      <c r="J73" t="s">
+        <v>399</v>
+      </c>
+      <c r="K73" t="s">
+        <v>400</v>
+      </c>
+      <c r="L73" t="s">
+        <v>401</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>396</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>403</v>
+      </c>
+      <c r="J74" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>405</v>
+      </c>
+      <c r="O74" t="s">
+        <v>115</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>406</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>407</v>
+      </c>
+      <c r="J75" t="s">
+        <v>408</v>
+      </c>
+      <c r="K75" t="s">
+        <v>409</v>
+      </c>
+      <c r="L75" t="s">
+        <v>410</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>411</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>413</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>414</v>
+      </c>
+      <c r="J76" t="s">
+        <v>415</v>
+      </c>
+      <c r="K76" t="s">
+        <v>416</v>
+      </c>
+      <c r="L76" t="s">
+        <v>417</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>411</v>
+      </c>
+      <c r="O76" t="s">
+        <v>115</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>418</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>419</v>
+      </c>
+      <c r="J77" t="s">
+        <v>420</v>
+      </c>
+      <c r="K77" t="s">
+        <v>421</v>
+      </c>
+      <c r="L77" t="s">
+        <v>422</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>423</v>
+      </c>
+      <c r="O77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>424</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>425</v>
+      </c>
+      <c r="J78" t="s">
+        <v>426</v>
+      </c>
+      <c r="K78" t="s">
+        <v>427</v>
+      </c>
+      <c r="L78" t="s">
+        <v>428</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>429</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>431</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>432</v>
+      </c>
+      <c r="J79" t="s">
+        <v>433</v>
+      </c>
+      <c r="K79" t="s">
+        <v>434</v>
+      </c>
+      <c r="L79" t="s">
+        <v>435</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>436</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>437</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J80" t="s">
+        <v>439</v>
+      </c>
+      <c r="K80" t="s">
+        <v>440</v>
+      </c>
+      <c r="L80" t="s">
+        <v>441</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>442</v>
+      </c>
+      <c r="O80" t="s">
+        <v>154</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11468</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>443</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>444</v>
+      </c>
+      <c r="J81" t="s">
+        <v>445</v>
+      </c>
+      <c r="K81" t="s">
+        <v>446</v>
+      </c>
+      <c r="L81" t="s">
+        <v>447</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>448</v>
+      </c>
+      <c r="O81" t="s">
+        <v>154</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_732.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_732.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Carol M</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>290shantih</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r564309660-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve">I have stayed at this location numerous times in 2016 but alot has changed there is now a $50 deposit which is an inconvenience if a customer really needs a room , if you are there visiting for work or business forget about staying here because you can only stay 7 days. The staff member was very very rude and at 10 a.m an hour before check out they were ringing my phone I can't say I would be returning to this site again </t>
   </si>
   <si>
+    <t>dborsa652486</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r563193927-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>L2851LTrebeccas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r554241708-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>janine3000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r552313084-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>I really enjoy this hotel the only disappointment  was that I requested late check out and front desk did not grant me it. I have never had a problem in the past.More</t>
   </si>
   <si>
+    <t>Democracy_Dr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r549343786-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>I should have checked the location better PRIOR to booking.  It's in a busy industrial area and things start getting really noisy at about 0600 hours.  So don't plan on sleeping in.Another issue is hotel staff entering my room, with a DO NOT DISTURB sign on my door, while I was gone.  If I had wanted maid service, OR anyone in my room while I was gone, I would NOT have hung the DO NOT DISTURB sign on the door.  Perhaps the sign should have been in Chinese? Anywho, those MAJOR annoyances aside, the room was large and comfortable including the Queen size beds.  BUT, the interior and exterior really show their age and are in need a major remodel, including much BETTER soundproofing. Overall, I can't give any more than Two stars.  If staff could read simple ENGLISH signs like DO NOT DISTURB, I would have given Three stars.There are much BETTER Super 8 locations AND much better econo hotels in the area for a similar price.More</t>
   </si>
   <si>
+    <t>brentw707</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r532097452-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>clairecN6361KX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r530044354-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>RMFOX222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r529748668-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>We stayed on the upper floor and found there was noise from adjacent rooms and also from the doors closing to the rooms. Parking is very tight and limited. Went down for breakfast (which is in the front lobby) when I thought that I had a few minutes to grab something but it was already cleaned up. Make sure your room clock is set the same as the office. Room was clean though.</t>
   </si>
   <si>
+    <t>Candy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r526195632-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>waltermL7634ON</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r523910970-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -351,6 +384,9 @@
     <t>09/12/2017</t>
   </si>
   <si>
+    <t>jennifermaha1993</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r521132129-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -366,6 +402,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>alltimepapichulo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r518511121-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +420,9 @@
     <t xml:space="preserve">I had my house fumigated and we had to vacate the property for two days. I booked a room with two queen sized bed and they were comfortable and everything was clean and accommodating. Only down side was a couple stayin in a room a couple doors down came out and started a scream fest and argument in their room that spilled over into the parking lot and then their expedition SUV, Within 15 minutes the manager showed up to tell them to leave. Other than that it was a comfortable stay </t>
   </si>
   <si>
+    <t>WhiteLotusFlower555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r511009595-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -393,6 +435,9 @@
     <t>Stayed here for one night while traveling through town. The positive: Room was clean and spacious. Beds were comfortable. Had ceramic simulated wood flooring throughout. Walking distance to Starbucks, KFC, Taco Bell and other places. Nice size fridge.  Good wifi. The negative: Continental style breakfast was lame. Bathroom was outdated, TV was small.  I would stay here again if necessary.</t>
   </si>
   <si>
+    <t>Nelia P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r503874687-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -405,6 +450,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>hunteranderson26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r497876141-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -417,6 +465,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Jill J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r494893667-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -432,6 +483,9 @@
     <t>This hotel is clean, well maintained and inexpensive. Nothing fancy but had everything we needed and very nice for the price. Love the faux wood flooring, much nicer than carpet, beautiful tile on the walkway. Bathroom is old style but perfectly acceptable. Nice size fridge in the room, desk, and cute little table for 2. Would stay again.</t>
   </si>
   <si>
+    <t>488guillerminap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r491328025-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -450,6 +504,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>MarianB5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r484230020-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -465,6 +522,9 @@
     <t>Nice, clean and spacious room. Has fridge but not microwave (you can use one at the breakfast area).Pool is not heated, so was cold during the first week of May.Breakfast is basic but good: coffee, tea, milk, cereal, bread and pancakes to heat in the microwave.Free parking, TV with cable, WiFi also included in the price.Checked in fast, even when was a little earlier from the suggested time.The place is northern LA, 30-40 minutes from Malibu/Santa Monica Pier. I felt safe in the area. Near Warner Center and Westfield Topanga Mall.</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r483301485-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -486,6 +546,9 @@
     <t>Pros: Convenient and nice location. Shopping and restaurants are close. Laminate flooring, so no carpet stains. Fridge in room. Staff is helpful, but hard to get a smile out of them. Best of all, great value! It is hard to get a hotel of this quality in the area for this price. Breakfast consisted of eggo waffles, pre-packaged cinnamon rolls, hot and cold cereal, toast and yogart, juices and coffee.Cons: It was warm enough to swim on our first day. Unfortunately, the pool was dirty and had leaves lying on the bottom. The leaves were later removed, but the dirt remained as can be seen in the photograph. The laminate floors appeared somewhat clean. My wife spent one morning walking around the room in socks, by noon, the bottom of her socks were blackened. We noticed housekeeping used a broom wrapped in a towel to wipe the floors. The lobby is small. It has two high top tables pushed together. You can eat breakfast standing up or take it to your room.More</t>
   </si>
   <si>
+    <t>57sault</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r465853910-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -496,6 +559,9 @@
   </si>
   <si>
     <t>February 2017</t>
+  </si>
+  <si>
+    <t>archived4you</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r460250529-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
@@ -522,6 +588,9 @@
 They have a lovely outdoor pool and hot tub and a lot of fun things for the kids to do. There is an attached bowling alley, diner and bar. All super nice to have all right there. The bar area (Where you could also order food at until 10 pm) has occasional local bands that come and play! Having all these amenities and perks attached right to the hotel was nice since we did not have a rental car.  We also had coupons in our room when we arrived for...Very nice updated room! It was spacious and clean and no complaints. The bed was super comfy and the staff was great. Dee at the front desk was super helpful in helping me book an Uber and overall a friendly face to check out with! The continental breakfast was open from 7-10am and I thought it was awesome! Much better than the continental breakfast in most of the hotels I've ever stayed at. The only bad thing is if you have to catch an early flight you may not be able to grab breakfast but they had "grab bags" at the counter that were free. It was filled with fruit, a breakfast bar and a water. Oh and they always have coffee and tea at the front desk so I was at least able to grab a bag and coffee for my breakfast on the morning I had to leave.They have a lovely outdoor pool and hot tub and a lot of fun things for the kids to do. There is an attached bowling alley, diner and bar. All super nice to have all right there. The bar area (Where you could also order food at until 10 pm) has occasional local bands that come and play! Having all these amenities and perks attached right to the hotel was nice since we did not have a rental car.  We also had coupons in our room when we arrived for free bowling! Awesome! When I come back to the area I'm definitely staying here! It was quiet even though the bowling alley, bar and dinner always seemed to be busy! I highly recommend!More</t>
   </si>
   <si>
+    <t>231karip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r459936925-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -534,6 +603,9 @@
     <t xml:space="preserve">The hotel isn't fancy. If that's what you're after, that's not what you're going to get. The area is loud as well. It's the valley. However, it's super clean, and the front desk staff is amazing! I booked with reward points and have been talked down to, my rooms given away, refused service and asked to leave early so kindness at the front desk from any hotel in California is worth a repeat visit. Love the place and will be back! </t>
   </si>
   <si>
+    <t>Theodore D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r456824898-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -555,6 +627,9 @@
     <t>I stay at Super 8 Motels frequently as a Medical Device Technician all over the country, but this particular location truly leaves a lot to be desired (it sucked)...This was my second visit in six weeks, the first room was adequate, the second room I had was a non smoking room that had a strong aroma of smoke, and numerous burn holes on the bed spread, this after signing a waver that I would not smoke in the room myself or get a penalty.  The lamps had been broken, and even for a super 8, the property is runned down.  I would not advise this property, I called Wyndam/Super 8 Corporate, they credited me some points, but even when I am working in the area, I will not stay here again, unfortunate, as the location worked well for meMore</t>
   </si>
   <si>
+    <t>Carrie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r451844329-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -576,6 +651,9 @@
     <t>The room, while neat, did not feel clean with its yucky, old green carpet. It had ripples in it like its time was done and needed to be replaced. The bathroom had a tub mat that was gray from being used, clearly needed a new one or at the very least, some bleach.  The second night while laying on the bed watching tv I was greeted by a spider that came racing over the side of the bed at me. When I looked over the side where it came from I could see there was about a foot of baseboard missing and the carpet was coming away from the wall so there was a nice opening for other "visitors" to come through. Also, there was this pounding noise that sounded like someone kept going around emptying the large trash bins outside the whole time. Between that, the spider and the 20mph winds that kept my door fluttering, it was really hard to get any sleep. I checked out a day early. I say they resolved my problem only because they refunded the night I didn't stay, otherwise, I have no way of knowing if they addressed the issues in that room. More</t>
   </si>
   <si>
+    <t>C5490XVfranciscom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r436610323-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -588,6 +666,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>ashley s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r435811215-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -603,6 +684,9 @@
     <t xml:space="preserve">It's great for a nights sleep &amp; price was ok  . Staff was Ok . Their is construction going on though very loud .. room was small but worked .bed was comfortable but pillow's could use some Help . More lighting in room as well would be helpful. </t>
   </si>
   <si>
+    <t>michaeloV7182ST</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r430297762-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -621,6 +705,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>LNWatson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r428042922-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -636,6 +723,9 @@
     <t xml:space="preserve">Spacious room, great wifi connection...and it's free, archaic furniture and refrigerator, no microwave, no iron and ironing board, very limited parking, good customer service, breakfast pickings are slim. The hotel itself could use a major upgrade. </t>
   </si>
   <si>
+    <t>Mary E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r414025480-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -654,6 +744,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Susie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r406286657-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -675,6 +768,9 @@
     <t xml:space="preserve">i go hear with my husband to escape the kids sometimes it is nice never had a problem here staff very nice </t>
   </si>
   <si>
+    <t>roxanneg126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r402449684-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -690,6 +786,9 @@
     <t>I had a very nice stay here the manager was consideret and helped me in the situation I was in .</t>
   </si>
   <si>
+    <t>Gerry K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r389464968-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -702,6 +801,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>MikeVdP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r388736295-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -717,6 +819,9 @@
     <t>The 2-queen room was nicer than most overnight chains.  There was a sink in the bathroom and one outside.  That is very convenient!Breakfast has a good selection of items, but not much choice of each.  2 cereals, 1 pastry, coffee, apples, 2 types of yogurt.  Also, toaster waffles, toast, etc.  There are 2 stand-up tables to eat at.  2-1/2 miles off the freeway.  A good stopping place.</t>
   </si>
   <si>
+    <t>michele4063</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r388402019-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -735,6 +840,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>218jeffreyo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r382498129-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -750,6 +858,9 @@
     <t xml:space="preserve">If all 2 stars were this good, there would be no need for more stars. Super clean, great service. Excellent location. Thank you!!! </t>
   </si>
   <si>
+    <t>jayona2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r379095746-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -762,6 +873,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>73kristynv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r361526686-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -780,6 +894,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>158ryannm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r357681541-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -795,6 +912,9 @@
     <t>The room was clean, updated, and worth every penny. However, I was very upset with the weekend parking situation. Apparently the hotel shares its parking lot with the adjacent restaurant, and when I returned to the hotel later in the evening there were NO spaces available. More frustrating was the young kid, who was running the office, and his dismissive attitude about the situation. Overall, though, it was a nice property, just don't leave once you get there.</t>
   </si>
   <si>
+    <t>Yvette K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r351337643-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -807,6 +927,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>shhong66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r348542033-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -816,6 +939,9 @@
     <t>02/17/2016</t>
   </si>
   <si>
+    <t>Valerie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r331293781-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -834,6 +960,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>689rayj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r324518046-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -846,6 +975,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>rb50buick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r318167544-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -861,6 +993,9 @@
     <t>Im honestly satisified with my recent stay! Parkings a bit tight but the staff to the room and rates will make me a repeat customer. Thank you.</t>
   </si>
   <si>
+    <t>SEYED T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r293888374-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -873,6 +1008,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Stuart S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r290569069-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -882,6 +1020,9 @@
     <t>07/19/2015</t>
   </si>
   <si>
+    <t>nhatg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r288110661-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -891,6 +1032,9 @@
     <t>July 12, 2015</t>
   </si>
   <si>
+    <t>Dan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r269852628-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -909,6 +1053,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Cowboydude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r265645491-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -921,6 +1068,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>BEVERLY S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r264787610-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -936,6 +1086,9 @@
     <t>We had a very comfortable room with a King Size bed a couple doors away from the Office. This property is located in rough part of Canaga Park.</t>
   </si>
   <si>
+    <t>Gordon T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r261559497-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -948,6 +1101,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Lori F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r247270757-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -966,6 +1122,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Martha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r242967820-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -978,6 +1137,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>danll2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r235702432-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -990,6 +1152,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r230603512-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1002,6 +1167,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Stanley F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r227802035-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1014,6 +1182,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Ben G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r210605334-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1032,6 +1203,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r209476602-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1041,6 +1215,9 @@
     <t>06/08/2014</t>
   </si>
   <si>
+    <t>Iam A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r207567466-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1062,6 +1239,9 @@
     <t>So I had a job in town that was expected to last a couple days.  I thought it would make sense to get a cheap room for the night to save gas and hopefully have more time to rest. Unfortunately, the room I had towards the back of the property had what I believe to be fleas or bed bugs and we had some less than desirable guests right next door. To be more exact, 4 PROSTITUTES WERE SHARING THE ROOM NEXT DOOR.  They had men lined up outside both of our rooms and were taking names. It was VERY obvious.  I called the manager and told him what was happening and I simply got a refund and apology right before they called the police to deal with it. IMO, I should have been offered a complimentary night or two at another one of the hotels in their network but, once again I am not impressed by the customer service of a hospitality provider.  Le Sigh....and yes, it was a rough day at work following all of this.More</t>
   </si>
   <si>
+    <t>Debra W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r202151240-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1074,6 +1254,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Carmen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r198591595-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1086,6 +1269,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>dancesca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r198585516-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1098,6 +1284,9 @@
     <t>I've been here several times and am reminded, each time I come, that the internet connection is AWFUL...they have at least 4 access points/routers, none of which never have internet access. I've been here 2.5 hours and have been on for a total of 5 minutes. If you are dependent upon internet for work, this is NOT the hotel. It's a decent hotel and reasonably priced, but forget having an internet connection! frustrating to say the least. I'm considering switching hotels, as I have a 2-night stay scheduled and need my internet!</t>
   </si>
   <si>
+    <t>Del P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r191710587-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1110,6 +1299,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Tina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r189949930-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1137,6 +1329,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Kishan612000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r185405260-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1158,6 +1353,9 @@
     <t>After having read reviews about this hotel, i was very concerned staying there in terms of safety and the condition of the rooms. However, i was very very impressed with 99% of my stay. Check in was very easy, the front desk clerk was very kind and checked in in very quickly. The area seemed quiet and it was all night. The room was just perfect, the furniture, bed, bedding, T.V, sink, bathroom area no complaints at all. The WiFi was great. This was more than i had expected.However, i was a little dissapointed in the morning i had went to the lobby at 6.06am and the doors were closed for breakfast even though they said and had written that breakfast started at 6am. However, after a couple of minutes more i went inside the lobby and found that there was Juice, Milk, one type of cereal, coffee, yogurt, only apples, small waffles, bread and Danishes but no where to sit and eat. When asked you dont have a sitting area instead of the front desk clerk replying something like "Unfortunatly not", he replied there is 2 chairs over there, how was i suppose to eat with no table? He said its a get and go breakfast. Check out was very easy. I will definatly stay at this hotel againMore</t>
   </si>
   <si>
+    <t>Agnes C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r176696589-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1170,6 +1368,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r174610387-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1182,6 +1383,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Ted B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r169532851-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1197,6 +1401,9 @@
     <t xml:space="preserve">After dealing with the rude guy at the front desk, we checked in to a room that smelled like pot smoke. The shower actually worked which was surprising. The pool closed early in the evening, which made no sense. Outside, some drunk lady was loitering around the parking lot. Definately not a suitable motel or family friendly.  Super 8 is usually a step up in quality from Motel 6, but not in this case. There was nothing Super about this dumpy little motel. </t>
   </si>
   <si>
+    <t>Thomas E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r168732294-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1215,6 +1422,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Doris C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r167581204-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1242,6 +1452,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>mildred s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r162987481-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1263,6 +1476,9 @@
     <t>My husband and I stayed on may 30 at your hotel. Next day as we left, he forgot his checkbook on the desk with a hundred dollar bill in side. We called as soon as he knew he had forgotten it. He was told that they had found the checkbook but know money. If  you can`t  trust the people that are working for you  then I guess this is not a hotel I or my friends want to stay at. I know the money was in his checkbook, so please tell me where it went from the time we left and the time we called? I believe you should look into it or it will happen again and will be more then us not pressing charges.   The young lady that checked us in was very nice, are room was clean and comfortable, so if you have answers for us please be in touch. Millie SerranoMore</t>
   </si>
   <si>
+    <t>Geoffrey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r162578541-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1278,6 +1494,9 @@
     <t>This hotel seems to be crawling with homeless, drunks, and prostitutes.  I had to deal with beggars outside the rooms, a prostitute who tried to lure me to her room, and a few drunks stumbling in the lot.  It was the middle of the day.  Not a good place for a family.  I was also overcharged by the hotel clerk and called him on it.  He returned the $10 overcharge but kept the cash and didn't give me a receipt.  Very bad hotel unless you want to get laid!</t>
   </si>
   <si>
+    <t>SOTERO D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r142442475-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1296,6 +1515,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>TravellingAZTeacher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r132133931-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1317,6 +1539,9 @@
     <t>We stayed here Friday, June 15, 2012, Room 119.  Compared to the experience we had at the BW Cypress on Katella, we were apprehensive as we drove in, kind of run-down looking on Topanga Blvd.  However, the gentleman who checked us in was great.  We arrived at the room and opened the door and WOW, clean, bright white sheets, bright white towels, great beds!  We did have an issue with the wireless internet.  We had three computers and only one would connect and that was only at dial up speed. The grounds are nicely landscaped and the pool was clean though we did not use it.There is a Sushi place immediately next door and actually shares the same parking lot.  I have to say we were up till after nine and people were lined up out the door waiting to get in.  AND, they took some of the hotel parking so it was tuff finding a place when we came back from our outback experience.All in all, we would stay here again because the value is there, we just did not like we could not get internet as we depend on it when we travel.We did not take breakfast however I will tell you it is two cereals, plain corn flakes and frosted, plain little bagels with cream cheese, some pastery and two juices.More</t>
   </si>
   <si>
+    <t>Travelin-Optimist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r120094368-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1335,6 +1560,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>buddytd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r115932480-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1351,6 +1579,9 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>busterzdad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d252254-r96785264-Super_8_by_Wyndham_Canoga_Park-Los_Angeles_California.html</t>
@@ -1873,43 +2104,47 @@
       <c r="A2" t="n">
         <v>11468</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1933,50 +2168,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11468</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2000,50 +2239,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11468</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2067,35 +2310,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11468</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2103,10 +2350,10 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2127,51 +2374,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11468</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2193,56 +2441,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11468</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2256,50 +2508,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11468</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2323,50 +2579,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11468</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2388,50 +2648,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11468</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2451,50 +2715,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11468</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>104</v>
       </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>96</v>
-      </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2518,35 +2786,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11468</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2554,10 +2826,10 @@
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2578,36 +2850,37 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11468</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2615,10 +2888,10 @@
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2639,51 +2912,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11468</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2707,50 +2981,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11468</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2774,35 +3052,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11468</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2810,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2834,36 +3116,37 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11468</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2871,10 +3154,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2895,51 +3178,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11468</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2953,50 +3237,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11468</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3020,50 +3308,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11468</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3081,50 +3373,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11468</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3138,35 +3434,39 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11468</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3174,10 +3474,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3198,51 +3498,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11468</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3262,50 +3563,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11468</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3329,50 +3634,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11468</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3392,50 +3701,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11468</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3459,35 +3772,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11468</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3495,10 +3812,10 @@
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3519,51 +3836,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11468</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3577,50 +3895,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11468</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3644,50 +3966,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11468</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3701,50 +4027,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11468</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3764,35 +4094,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>11468</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3800,10 +4134,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3824,51 +4158,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>11468</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="J33" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3892,50 +4227,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>11468</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3959,35 +4298,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>11468</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3995,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4019,51 +4362,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>11468</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4077,50 +4421,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>11468</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4140,50 +4488,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>11468</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4207,35 +4559,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>11468</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>278</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4243,10 +4599,10 @@
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4267,51 +4623,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>11468</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>283</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4335,50 +4692,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>11468</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4402,35 +4763,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>11468</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>296</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4438,10 +4803,10 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4462,36 +4827,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>11468</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>301</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J43" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4499,10 +4865,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4523,51 +4889,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>11468</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4591,35 +4958,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>11468</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="J45" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4627,10 +4998,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4651,51 +5022,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>11468</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="O46" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4719,35 +5091,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>11468</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>323</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="J47" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4755,10 +5131,10 @@
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="O47" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4779,36 +5155,37 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>11468</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>328</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4816,10 +5193,10 @@
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4840,36 +5217,37 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>11468</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4885,51 +5263,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>11468</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>336</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="J50" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="K50" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="O50" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4949,35 +5328,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>11468</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>343</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4985,10 +5368,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="O51" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5009,51 +5392,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>11468</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>348</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5077,35 +5461,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>11468</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>354</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="J53" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5113,10 +5501,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5137,51 +5525,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>11468</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>359</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5205,35 +5594,39 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>11468</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5241,10 +5634,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5265,36 +5658,37 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>11468</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>371</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5302,10 +5696,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5326,36 +5720,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>11468</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>376</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="J57" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5363,10 +5758,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5387,36 +5782,37 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>11468</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5424,10 +5820,10 @@
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5448,51 +5844,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>11468</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>386</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="K59" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -5516,35 +5913,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>11468</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>393</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="J60" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5552,10 +5953,10 @@
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5576,51 +5977,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>11468</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>397</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="J61" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="K61" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="O61" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5644,35 +6046,39 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>11468</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>405</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="J62" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5680,10 +6086,10 @@
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5704,36 +6110,37 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>11468</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>410</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="J63" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5741,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="O63" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -5765,51 +6172,52 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>11468</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>415</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="J64" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="K64" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="O64" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -5833,35 +6241,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>11468</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>420</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="J65" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -5869,10 +6281,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -5893,36 +6305,37 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>11468</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>425</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="J66" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -5930,10 +6343,10 @@
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="O66" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -5954,49 +6367,50 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>11468</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>366</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="J67" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="O67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6020,50 +6434,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>11468</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>435</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="J68" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="K68" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="L68" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="O68" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6087,35 +6505,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>11468</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>443</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="J69" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6123,10 +6545,10 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="O69" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6147,36 +6569,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>11468</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>448</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="J70" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6184,10 +6607,10 @@
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="O70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6208,42 +6631,43 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>11468</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>453</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="J71" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -6272,50 +6696,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>11468</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>459</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="J72" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="K72" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6339,50 +6767,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>11468</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>466</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="J73" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="K73" t="s">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6406,35 +6838,39 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>11468</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>305</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>402</v>
+        <v>472</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="J74" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6442,10 +6878,10 @@
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="O74" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6466,51 +6902,52 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>11468</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>476</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="J75" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="K75" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -6530,50 +6967,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>11468</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>484</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>413</v>
+        <v>485</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="J76" t="s">
-        <v>415</v>
+        <v>487</v>
       </c>
       <c r="K76" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="O76" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6597,50 +7038,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>11468</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>490</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="J77" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="K77" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="L77" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="O77" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -6664,50 +7109,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>11468</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>497</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="J78" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="K78" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="L78" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -6731,50 +7180,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>11468</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>505</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
       <c r="J79" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="K79" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -6798,50 +7251,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>11468</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>512</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="J80" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="K80" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="L80" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="O80" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -6861,50 +7318,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>11468</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>519</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
       <c r="J81" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="K81" t="s">
-        <v>446</v>
+        <v>523</v>
       </c>
       <c r="L81" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="O81" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -6928,7 +7389,7 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
